--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CSP\CSC 450 - Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EB0A19-8B95-43A0-AF55-E057F2CBFA2C}"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="0" windowWidth="19230" windowHeight="15585" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17655" windowHeight="15585" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Pet" sheetId="2" r:id="rId2"/>
+    <sheet name="Image" sheetId="3" r:id="rId3"/>
+    <sheet name="Shelter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>Entities</t>
   </si>
@@ -190,6 +192,72 @@
   </si>
   <si>
     <t>Conversation</t>
+  </si>
+  <si>
+    <t>Each record represents a picture or image of a pet, shelter, or adopter.</t>
+  </si>
+  <si>
+    <t>ImageID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>The path to the file</t>
+  </si>
+  <si>
+    <t>The name of the file</t>
+  </si>
+  <si>
+    <t>The file type</t>
+  </si>
+  <si>
+    <t>jpg, png</t>
+  </si>
+  <si>
+    <t>The file size in bytes</t>
+  </si>
+  <si>
+    <t>The image height in pixels</t>
+  </si>
+  <si>
+    <t>The image width in pixels</t>
+  </si>
+  <si>
+    <t>A description of the image, can be used for alt text</t>
+  </si>
+  <si>
+    <t>Each record represents an animal shelter that can list pets for adoption.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>The name of the shelter</t>
+  </si>
+  <si>
+    <t>The address of the shelter</t>
+  </si>
+  <si>
+    <t>The phone number of the shelter</t>
+  </si>
+  <si>
+    <t>Information about the shelter</t>
   </si>
 </sst>
 </file>
@@ -250,7 +318,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -283,7 +387,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:I13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:I13" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A3:I13" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1E9FD76C-67CF-4C3A-B2FF-7F27BC227782}" name="Column Name"/>
@@ -295,6 +399,42 @@
     <tableColumn id="7" xr3:uid="{EE46C3A4-47F9-439F-B5B4-D669183FF985}" name="Description"/>
     <tableColumn id="8" xr3:uid="{315BA0D5-AB48-4EE9-BC09-C1EEB8269F52}" name="Constraints / Rules"/>
     <tableColumn id="9" xr3:uid="{D81375B8-775C-4224-ACA2-15E6EA4B388B}" name="Examples"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:I11" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{EB709C33-59D5-425D-8377-7248B32C02CE}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{75254070-CA4E-480C-B2F3-A37C89E13CC5}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{E9F6D479-94E1-4FB6-B135-8D5A0A8853BA}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{4DF244A4-E443-4391-9F9C-8293B3D6F33C}" name="Nullable?"/>
+    <tableColumn id="5" xr3:uid="{6ED8AE59-31B4-4000-B882-7CDE6777D3AE}" name="Key"/>
+    <tableColumn id="6" xr3:uid="{29B77AAE-7E51-4EE5-8FA4-35172A213A0D}" name="Default"/>
+    <tableColumn id="7" xr3:uid="{BDBAE8A3-B4FA-47DF-A45D-7710DDE8984E}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{38DF9CBB-8A27-4C52-A308-3F8DC39B313D}" name="Constraints / Rules"/>
+    <tableColumn id="9" xr3:uid="{67D82209-B19C-4456-AF70-C9C4135A5BDC}" name="Examples"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:I8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{481A897D-79ED-4701-A306-8AE478D3E8D1}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{CABF0793-9526-49F0-AC0E-9421F6643A4C}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{DF78AA7E-2EED-4648-8A05-89B0CFF8EBDF}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{6AFE7F2A-7A3E-4B43-9E42-DE8BD2BE093F}" name="Nullable?"/>
+    <tableColumn id="5" xr3:uid="{1D1381AE-694A-49F4-91B5-B1263E3C8720}" name="Key"/>
+    <tableColumn id="6" xr3:uid="{4AA3684F-C38E-47B4-903A-F84E8AD0340D}" name="Default"/>
+    <tableColumn id="7" xr3:uid="{465B317E-BE11-432E-9AA3-0EAAF6422602}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{EF4BA98D-3BC0-41A5-80BE-8C942C606524}" name="Constraints / Rules"/>
+    <tableColumn id="9" xr3:uid="{0E588221-F992-46CC-9C3A-3F3C1D8DCFED}" name="Examples"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -929,4 +1069,367 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F5497-3B2C-49F6-9D76-3F15F3B4A916}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416153F-8F28-4FCA-A51F-4BC2378243FC}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7">
+        <v>5551119876</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EB0A19-8B95-43A0-AF55-E057F2CBFA2C}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A7529AE-7525-4D0D-BC6A-0E33F6A1BB46}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17655" windowHeight="15585" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Pet" sheetId="2" r:id="rId2"/>
     <sheet name="Image" sheetId="3" r:id="rId3"/>
-    <sheet name="Shelter" sheetId="4" r:id="rId4"/>
+    <sheet name="Profile" sheetId="4" r:id="rId4"/>
+    <sheet name="Conversation" sheetId="6" r:id="rId5"/>
+    <sheet name="Message" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
   <si>
     <t>Entities</t>
   </si>
@@ -104,12 +106,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>Shelter</t>
-  </si>
-  <si>
-    <t>Adopter</t>
-  </si>
-  <si>
     <t>Nullable?</t>
   </si>
   <si>
@@ -143,9 +139,6 @@
     <t>1, 2, 3, etc.</t>
   </si>
   <si>
-    <t>Relates each pet to a shelter</t>
-  </si>
-  <si>
     <t>Name of pet</t>
   </si>
   <si>
@@ -239,25 +232,118 @@
     <t>A description of the image, can be used for alt text</t>
   </si>
   <si>
-    <t>Each record represents an animal shelter that can list pets for adoption.</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>The name of the shelter</t>
-  </si>
-  <si>
-    <t>The address of the shelter</t>
-  </si>
-  <si>
-    <t>The phone number of the shelter</t>
-  </si>
-  <si>
-    <t>Information about the shelter</t>
+    <t>AdopterID</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Must be 5 digits</t>
+  </si>
+  <si>
+    <t>2 letter abbreviation</t>
+  </si>
+  <si>
+    <t>The street address</t>
+  </si>
+  <si>
+    <t>The city</t>
+  </si>
+  <si>
+    <t>The state</t>
+  </si>
+  <si>
+    <t>The zip code</t>
+  </si>
+  <si>
+    <t>The phone number</t>
+  </si>
+  <si>
+    <t>Each record represents a message thread between an adopter and a shelter.</t>
+  </si>
+  <si>
+    <t>ConversationID</t>
+  </si>
+  <si>
+    <t>The ID of the adopter</t>
+  </si>
+  <si>
+    <t>The ID of the shelter</t>
+  </si>
+  <si>
+    <t>MessageID</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>The content of the message</t>
+  </si>
+  <si>
+    <t>MessageDateTime</t>
+  </si>
+  <si>
+    <t>The date and time that the message was sent</t>
+  </si>
+  <si>
+    <t>SenderID</t>
+  </si>
+  <si>
+    <t>RecipientID</t>
+  </si>
+  <si>
+    <t>The ID of the sender</t>
+  </si>
+  <si>
+    <t>The ID of the recipient</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Enum {shelter, adopter}</t>
+  </si>
+  <si>
+    <t>Each record represents an animal shelter that can list pets for adoption or a person who can view available pets and apply for adoption.</t>
+  </si>
+  <si>
+    <t>The last name of the adopter</t>
+  </si>
+  <si>
+    <t>The name of the shelter or first name of the adopter</t>
+  </si>
+  <si>
+    <t>Information about the shelter or adopter</t>
+  </si>
+  <si>
+    <t>The shelter this pet belongs to</t>
+  </si>
+  <si>
+    <t>The optional image for this profile</t>
+  </si>
+  <si>
+    <t>The type of profile (shelter or adopter)</t>
+  </si>
+  <si>
+    <t>Profile</t>
   </si>
 </sst>
 </file>
@@ -318,7 +404,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -386,8 +508,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:I13" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:I13" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A3:I13" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1E9FD76C-67CF-4C3A-B2FF-7F27BC227782}" name="Column Name"/>
@@ -405,7 +531,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I11" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I11" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A3:I11" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB709C33-59D5-425D-8377-7248B32C02CE}" name="Column Name"/>
@@ -423,8 +549,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:I8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I14" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:I14" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{481A897D-79ED-4701-A306-8AE478D3E8D1}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{CABF0793-9526-49F0-AC0E-9421F6643A4C}" name="Data Type"/>
@@ -435,6 +561,42 @@
     <tableColumn id="7" xr3:uid="{465B317E-BE11-432E-9AA3-0EAAF6422602}" name="Description"/>
     <tableColumn id="8" xr3:uid="{EF4BA98D-3BC0-41A5-80BE-8C942C606524}" name="Constraints / Rules"/>
     <tableColumn id="9" xr3:uid="{0E588221-F992-46CC-9C3A-3F3C1D8DCFED}" name="Examples"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F585819-CDFC-49F1-B896-89A8E691B468}" name="Table13456" displayName="Table13456" ref="A3:I6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{4E0CB051-CCD2-4A85-8D7B-8CA3CCEEF6A0}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{AAE3B36C-5E24-40F9-9053-D9C60030938A}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{1F0B49FF-D551-4536-ADCD-27B24BE30C51}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{06818641-9932-4FAE-8A0E-36130EB29D83}" name="Nullable?"/>
+    <tableColumn id="5" xr3:uid="{DF16CA5D-04C3-4A09-B48E-C014682D21ED}" name="Key"/>
+    <tableColumn id="6" xr3:uid="{F91128EE-DA6A-4601-A22D-535AB880EAC3}" name="Default"/>
+    <tableColumn id="7" xr3:uid="{6B6E46BF-EEB9-4278-9ABE-311AA5DC1E40}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{CC1C39C4-794C-489D-88A5-7F92D521308F}" name="Constraints / Rules"/>
+    <tableColumn id="9" xr3:uid="{5B961BB3-FB66-47F1-B7C9-3382D37EE530}" name="Examples"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:I8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:I8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{FBEFA340-7F68-401A-9E6D-41F0196FC817}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{6E519037-41AF-4060-8855-372EB9BDAF77}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{3265998E-4D46-422F-A2A7-DB7E1F33AABC}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{5516E5F2-866D-4D76-BE26-34634A97F853}" name="Nullable?"/>
+    <tableColumn id="5" xr3:uid="{08186DB7-F535-431E-81AC-3002DD89E469}" name="Key"/>
+    <tableColumn id="6" xr3:uid="{B1811FB6-23DA-447D-9041-6C3BD24C714A}" name="Default"/>
+    <tableColumn id="7" xr3:uid="{524453F3-8453-4768-906D-3F3FA989198E}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{211023E5-9877-4E18-8F50-7CEF6B5D46D0}" name="Constraints / Rules"/>
+    <tableColumn id="9" xr3:uid="{5AA2A702-FA2C-4C72-9FEA-C78F40419A5D}" name="Examples"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -757,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EB38A2-ED52-43FF-841F-8E6F88246B9B}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,27 +947,22 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD6FC8F-B656-4122-87D8-AAB6B1AEAB10}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -851,22 +1010,22 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,36 +1036,36 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,10 +1079,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -937,13 +1096,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -957,27 +1116,27 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2">
         <v>42826</v>
@@ -994,13 +1153,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1014,13 +1173,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1034,15 +1193,15 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1051,16 +1210,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1256,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1111,50 +1270,50 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1163,15 +1322,15 @@
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1180,15 +1339,15 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1197,13 +1356,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1214,39 +1373,39 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,10 +1419,10 @@
         <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416153F-8F28-4FCA-A51F-4BC2378243FC}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,12 +1454,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1314,67 +1473,70 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1383,47 +1545,432 @@
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7">
-        <v>5551119876</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>5551119876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1A0C1-A186-4C40-9B4C-A41A9543822E}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE156F-D2B9-4B6C-8D99-0B4E3462A308}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A7529AE-7525-4D0D-BC6A-0E33F6A1BB46}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF8741B-1445-4844-9CA9-9935A615CA44}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
     <sheet name="Pet" sheetId="2" r:id="rId2"/>
     <sheet name="Image" sheetId="3" r:id="rId3"/>
-    <sheet name="Profile" sheetId="4" r:id="rId4"/>
-    <sheet name="Conversation" sheetId="6" r:id="rId5"/>
-    <sheet name="Message" sheetId="7" r:id="rId6"/>
+    <sheet name="PetImage" sheetId="8" r:id="rId4"/>
+    <sheet name="Profile" sheetId="4" r:id="rId5"/>
+    <sheet name="Conversation" sheetId="6" r:id="rId6"/>
+    <sheet name="Message" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
   <si>
     <t>Entities</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>ShelterID</t>
-  </si>
-  <si>
     <t>FK</t>
   </si>
   <si>
@@ -238,9 +236,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>AdopterID</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
@@ -280,12 +275,6 @@
     <t>ConversationID</t>
   </si>
   <si>
-    <t>The ID of the adopter</t>
-  </si>
-  <si>
-    <t>The ID of the shelter</t>
-  </si>
-  <si>
     <t>MessageID</t>
   </si>
   <si>
@@ -313,12 +302,6 @@
     <t>The ID of the recipient</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
     <t>Enum {shelter, adopter}</t>
   </si>
   <si>
@@ -344,6 +327,36 @@
   </si>
   <si>
     <t>Profile</t>
+  </si>
+  <si>
+    <t>ProfileID</t>
+  </si>
+  <si>
+    <t>The ID of the pet</t>
+  </si>
+  <si>
+    <t>The ID of the image</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>A number used to order the images for this pet</t>
+  </si>
+  <si>
+    <t>Highest sequence for this pet + 1</t>
+  </si>
+  <si>
+    <t>Each record represents a message between an adopter and a shelter.</t>
+  </si>
+  <si>
+    <t>PetImage</t>
+  </si>
+  <si>
+    <t>ERD Complete?</t>
+  </si>
+  <si>
+    <t>DD Complete?</t>
   </si>
 </sst>
 </file>
@@ -375,12 +388,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -395,16 +414,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -513,7 +553,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:I13" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}" name="Table1" displayName="Table1" ref="A3:I13" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A3:I13" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1E9FD76C-67CF-4C3A-B2FF-7F27BC227782}" name="Column Name"/>
@@ -531,7 +571,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I11" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I11" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A3:I11" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB709C33-59D5-425D-8377-7248B32C02CE}" name="Column Name"/>
@@ -549,7 +589,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I14" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BC8071A3-E8B8-448C-A6BC-80674C1B3E55}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{5CA9BA08-E580-423A-AA46-97051F208308}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{F35F198E-610E-4C20-B266-CB795483243E}" name="Size"/>
+    <tableColumn id="4" xr3:uid="{F1E6C09A-6160-4020-A9A8-ED4867F282AB}" name="Nullable?"/>
+    <tableColumn id="5" xr3:uid="{C2FBE539-2F05-4531-9746-9E709EADDD8A}" name="Key"/>
+    <tableColumn id="6" xr3:uid="{40E48B36-6D08-4C89-80B8-9F8386E3517E}" name="Default"/>
+    <tableColumn id="7" xr3:uid="{27DBBF1E-90ED-4D84-8391-71C239B1B529}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{360D7AFD-0DDA-48B2-B904-24BE7D963D90}" name="Constraints / Rules"/>
+    <tableColumn id="9" xr3:uid="{CA1369A8-C18C-4E6F-BD37-C63902478B1F}" name="Examples"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I14" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A3:I14" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{481A897D-79ED-4701-A306-8AE478D3E8D1}" name="Column Name"/>
@@ -566,9 +624,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F585819-CDFC-49F1-B896-89A8E691B468}" name="Table13456" displayName="Table13456" ref="A3:I6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F585819-CDFC-49F1-B896-89A8E691B468}" name="Table13456" displayName="Table13456" ref="A3:I4" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:I4" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4E0CB051-CCD2-4A85-8D7B-8CA3CCEEF6A0}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{AAE3B36C-5E24-40F9-9053-D9C60030938A}" name="Data Type"/>
@@ -584,8 +642,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:I8" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:I8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A3:I8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FBEFA340-7F68-401A-9E6D-41F0196FC817}" name="Column Name"/>
@@ -919,50 +977,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EB38A2-ED52-43FF-841F-8E6F88246B9B}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1088,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,22 +1123,22 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1036,36 +1149,36 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,10 +1192,10 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1096,13 +1209,13 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1116,27 +1229,27 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
       </c>
       <c r="I9" s="2">
         <v>42826</v>
@@ -1153,13 +1266,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1193,15 +1306,15 @@
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1210,16 +1323,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1256,7 +1369,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1270,50 +1383,50 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1322,15 +1435,15 @@
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1339,15 +1452,15 @@
         <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1356,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
         <v>57</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,39 +1486,39 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1419,10 +1532,10 @@
         <v>1000</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1434,11 +1547,403 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B12E226-D16C-47D1-A2C0-88DD9E1D773B}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1416153F-8F28-4FCA-A51F-4BC2378243FC}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12">
+        <v>5551119876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1A0C1-A186-4C40-9B4C-A41A9543822E}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,12 +1959,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1473,227 +1978,45 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12">
-        <v>5551119876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1704,135 +2027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1A0C1-A186-4C40-9B4C-A41A9543822E}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE156F-D2B9-4B6C-8D99-0B4E3462A308}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,12 +2048,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1867,84 +2067,84 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1953,24 +2153,24 @@
         <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAF8741B-1445-4844-9CA9-9935A615CA44}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD9F9781-A8BF-4300-9357-7F4DE54BD66A}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
   <si>
     <t>Entities</t>
   </si>
@@ -210,15 +210,6 @@
   </si>
   <si>
     <t>The name of the file</t>
-  </si>
-  <si>
-    <t>The file type</t>
-  </si>
-  <si>
-    <t>jpg, png</t>
-  </si>
-  <si>
-    <t>The file size in bytes</t>
   </si>
   <si>
     <t>The image height in pixels</t>
@@ -414,14 +405,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I11" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A3:I11" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I9" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A3:I9" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB709C33-59D5-425D-8377-7248B32C02CE}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{75254070-CA4E-480C-B2F3-A37C89E13CC5}" name="Data Type"/>
@@ -589,7 +578,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I6" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BC8071A3-E8B8-448C-A6BC-80674C1B3E55}" name="Column Name"/>
@@ -607,7 +596,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I14" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2F851650-791A-4B1B-AD76-4200E4AD3FB8}" name="Table134" displayName="Table134" ref="A3:I14" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A3:I14" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{481A897D-79ED-4701-A306-8AE478D3E8D1}" name="Column Name"/>
@@ -625,7 +614,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F585819-CDFC-49F1-B896-89A8E691B468}" name="Table13456" displayName="Table13456" ref="A3:I4" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6F585819-CDFC-49F1-B896-89A8E691B468}" name="Table13456" displayName="Table13456" ref="A3:I4" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A3:I4" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4E0CB051-CCD2-4A85-8D7B-8CA3CCEEF6A0}" name="Column Name"/>
@@ -643,7 +632,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:I8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4607B877-37BB-47F2-8507-417D87380272}" name="Table134567" displayName="Table134567" ref="A3:I8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A3:I8" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FBEFA340-7F68-401A-9E6D-41F0196FC817}" name="Column Name"/>
@@ -979,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EB38A2-ED52-43FF-841F-8E6F88246B9B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -995,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,7 +997,7 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1019,29 +1008,29 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1052,7 +1041,7 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1063,18 +1052,18 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1166,7 +1155,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1178,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F5497-3B2C-49F6-9D76-3F15F3B4A916}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1346,7 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" customWidth="1"/>
   </cols>
@@ -1429,7 +1418,7 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>500</v>
@@ -1460,12 +1449,9 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
@@ -1474,13 +1460,11 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
-        <v>57</v>
-      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1489,53 +1473,24 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1605,25 +1560,21 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1639,12 +1590,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1653,10 +1604,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1688,12 +1639,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1727,7 +1678,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1762,10 +1713,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1782,12 +1733,12 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1799,12 +1750,12 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1816,12 +1767,12 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1833,12 +1784,12 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1850,15 +1801,15 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1870,15 +1821,15 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1890,7 +1841,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <v>5551119876</v>
@@ -1910,7 +1861,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1927,7 +1878,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1964,7 +1915,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1998,7 +1949,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2053,7 +2004,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2087,7 +2038,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2110,7 +2061,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2122,12 +2073,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2139,12 +2090,12 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2156,12 +2107,12 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -2170,7 +2121,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD9F9781-A8BF-4300-9357-7F4DE54BD66A}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE7061C-BC67-4B76-83A7-EED1CE0B5501}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
   <si>
     <t>Entities</t>
   </si>
@@ -191,33 +191,12 @@
     <t>ImageID</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
     <t>The path to the file</t>
   </si>
   <si>
-    <t>The name of the file</t>
-  </si>
-  <si>
-    <t>The image height in pixels</t>
-  </si>
-  <si>
-    <t>The image width in pixels</t>
-  </si>
-  <si>
     <t>A description of the image, can be used for alt text</t>
   </si>
   <si>
@@ -348,6 +327,12 @@
   </si>
   <si>
     <t>DD Complete?</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>PetImageID</t>
   </si>
 </sst>
 </file>
@@ -405,12 +390,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +546,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I9" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A3:I9" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EC571A79-7597-4ED5-B7C7-7BAE304AE8C8}" name="Table13" displayName="Table13" ref="A3:I6" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EB709C33-59D5-425D-8377-7248B32C02CE}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{75254070-CA4E-480C-B2F3-A37C89E13CC5}" name="Data Type"/>
@@ -578,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I6" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I7" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I7" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BC8071A3-E8B8-448C-A6BC-80674C1B3E55}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{5CA9BA08-E580-423A-AA46-97051F208308}" name="Data Type"/>
@@ -984,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,7 +1000,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1025,7 +1011,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1077,7 +1063,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1141,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1167,7 +1153,7 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1334,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68F5497-3B2C-49F6-9D76-3F15F3B4A916}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1401,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1427,70 +1413,24 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B12E226-D16C-47D1-A2C0-88DD9E1D773B}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,25 +1500,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1590,12 +1534,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1603,11 +1547,28 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>97</v>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1623,7 +1584,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,12 +1600,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1678,7 +1639,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1701,7 +1662,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1713,10 +1674,10 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1733,12 +1694,12 @@
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1750,12 +1711,12 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1767,12 +1728,12 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1784,12 +1745,12 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1801,47 +1762,47 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>5551119876</v>
@@ -1861,7 +1822,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1878,7 +1839,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1876,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,7 +1910,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2004,7 +1965,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2038,7 +1999,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -2061,7 +2022,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -2073,12 +2034,12 @@
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -2090,12 +2051,12 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2107,12 +2068,12 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
@@ -2121,7 +2082,7 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FE7061C-BC67-4B76-83A7-EED1CE0B5501}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706A39E0-9912-4AF2-A838-80CE7CC8F4C9}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
   <si>
     <t>Entities</t>
   </si>
@@ -80,9 +80,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>varchar</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
     <t>ImageID</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>The path to the file</t>
   </si>
   <si>
@@ -308,15 +302,6 @@
     <t>The ID of the image</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
-    <t>A number used to order the images for this pet</t>
-  </si>
-  <si>
-    <t>Highest sequence for this pet + 1</t>
-  </si>
-  <si>
     <t>Each record represents a message between an adopter and a shelter.</t>
   </si>
   <si>
@@ -333,6 +318,27 @@
   </si>
   <si>
     <t>PetImageID</t>
+  </si>
+  <si>
+    <t>PetName</t>
+  </si>
+  <si>
+    <t>PetDescription</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ProfileType</t>
+  </si>
+  <si>
+    <t>ProfileName</t>
+  </si>
+  <si>
+    <t>ProfileDescription</t>
+  </si>
+  <si>
+    <t>ImageDescription</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I7" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A3:I7" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FF2989B8-E871-46A4-954C-1AD070896BFA}" name="Table135" displayName="Table135" ref="A3:I6" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A3:I6" xr:uid="{4B623F3C-D3CF-40EF-9EB9-273E09D1438E}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BC8071A3-E8B8-448C-A6BC-80674C1B3E55}" name="Column Name"/>
     <tableColumn id="2" xr3:uid="{5CA9BA08-E580-423A-AA46-97051F208308}" name="Data Type"/>
@@ -970,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,10 +986,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,43 +997,43 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,10 +1041,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1062,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD6FC8F-B656-4122-87D8-AAB6B1AEAB10}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1089,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1098,22 +1103,22 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1124,61 +1129,61 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1187,18 +1192,18 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -1207,24 +1212,24 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
         <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="2">
         <v>42826</v>
@@ -1235,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1244,18 +1249,18 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1264,50 +1269,50 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1000</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1328,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1349,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1358,79 +1363,79 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>500</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1443,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B12E226-D16C-47D1-A2C0-88DD9E1D773B}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1472,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,44 +1486,40 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1528,47 +1529,30 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1568,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,12 +1584,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1619,107 +1603,107 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6">
         <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>200</v>
@@ -1728,15 +1712,15 @@
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -1745,15 +1729,15 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1762,18 +1746,18 @@
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1782,27 +1766,27 @@
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I12">
         <v>5551119876</v>
@@ -1810,36 +1794,36 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1000</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1871,12 +1855,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1890,45 +1874,45 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1960,12 +1944,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1979,110 +1963,110 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1000</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b23540b5940dc24b/Documents/GitHub/pet-adoption-platform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706A39E0-9912-4AF2-A838-80CE7CC8F4C9}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{C1B0FE99-43D3-4C83-9A70-446CD0ACE2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7771E33E-3171-4EB1-86C4-7BA81FC7E3A4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="1" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{53CEDAC0-C0B7-4620-9FC4-13FBD529EB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="101">
   <si>
     <t>Entities</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>ImageDescription</t>
+  </si>
+  <si>
+    <t>* NOTE: This table is currently not used.</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,12 +408,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,97 +970,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EB38A2-ED52-43FF-841F-8E6F88246B9B}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD6FC8F-B656-4122-87D8-AAB6B1AEAB10}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
@@ -1836,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D1A0C1-A186-4C40-9B4C-A41A9543822E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,6 +1935,13 @@
         <v>29</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1928,7 +1955,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1971,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
